--- a/public/427.xlsx
+++ b/public/427.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5FC31-ED3C-4D21-88E4-857174991BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C7D7B-036F-4FE7-860E-D4A7426F06EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6064,53 +6064,53 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6442,10 +6442,10 @@
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -6485,7 +6485,7 @@
     <col min="34" max="34" width="16.42578125" style="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="225" customFormat="1" ht="32.65" customHeight="1">
+    <row r="1" spans="1:34" s="214" customFormat="1" ht="32.65" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="215" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -6510,73 +6510,73 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="222" t="s">
+      <c r="I1" s="211" t="s">
         <v>1028</v>
       </c>
-      <c r="J1" s="222" t="s">
+      <c r="J1" s="211" t="s">
         <v>1029</v>
       </c>
-      <c r="K1" s="222" t="s">
+      <c r="K1" s="211" t="s">
         <v>1030</v>
       </c>
-      <c r="L1" s="222" t="s">
+      <c r="L1" s="211" t="s">
         <v>1031</v>
       </c>
-      <c r="M1" s="222" t="s">
+      <c r="M1" s="211" t="s">
         <v>1032</v>
       </c>
-      <c r="N1" s="222" t="s">
+      <c r="N1" s="211" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="223" t="s">
+      <c r="P1" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="223" t="s">
+      <c r="Q1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="223" t="s">
+      <c r="R1" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="224" t="s">
+      <c r="S1" s="213" t="s">
         <v>1033</v>
       </c>
-      <c r="T1" s="222" t="s">
+      <c r="T1" s="211" t="s">
         <v>1034</v>
       </c>
-      <c r="U1" s="222" t="s">
+      <c r="U1" s="211" t="s">
         <v>1035</v>
       </c>
-      <c r="V1" s="222" t="s">
+      <c r="V1" s="211" t="s">
         <v>1036</v>
       </c>
-      <c r="W1" s="222" t="s">
+      <c r="W1" s="211" t="s">
         <v>1037</v>
       </c>
-      <c r="X1" s="222" t="s">
+      <c r="X1" s="211" t="s">
         <v>1038</v>
       </c>
-      <c r="Y1" s="223" t="s">
+      <c r="Y1" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="224" t="s">
+      <c r="Z1" s="213" t="s">
         <v>1039</v>
       </c>
-      <c r="AA1" s="222" t="s">
+      <c r="AA1" s="211" t="s">
         <v>1040</v>
       </c>
-      <c r="AB1" s="222" t="s">
+      <c r="AB1" s="211" t="s">
         <v>1041</v>
       </c>
-      <c r="AC1" s="222" t="s">
+      <c r="AC1" s="211" t="s">
         <v>1042</v>
       </c>
-      <c r="AD1" s="222" t="s">
+      <c r="AD1" s="211" t="s">
         <v>1043</v>
       </c>
-      <c r="AE1" s="222" t="s">
+      <c r="AE1" s="211" t="s">
         <v>1044</v>
       </c>
       <c r="AF1" s="6" t="s">
@@ -17155,7 +17155,7 @@
   <customSheetViews>
     <customSheetView guid="{BCDA923B-10B4-45A3-AB4E-E599575D8D5B}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E131" xr:uid="{5B9D7A9B-3B32-45EF-9D98-8D3CF9C3C588}"/>
+      <autoFilter ref="E1:E131" xr:uid="{3FB9755A-9E3F-474B-9A42-5EB737F92998}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="28" type="noConversion"/>
@@ -17672,15 +17672,15 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="211"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
+      <c r="A13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="217"/>
       <c r="K13" s="167">
         <f t="shared" ref="K13:P13" si="0">SUM(K3:K12)</f>
         <v>10</v>
@@ -17809,15 +17809,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="218" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="215"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="171" t="s">
@@ -17843,15 +17843,15 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="221" t="s">
         <v>738</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="215"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="220"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="173">
@@ -18066,15 +18066,15 @@
       <c r="G12" s="181"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="221" t="s">
         <v>760</v>
       </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="215"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="220"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="173">
@@ -18286,15 +18286,15 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="221" t="s">
         <v>779</v>
       </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="215"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="220"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="173">
@@ -18507,15 +18507,15 @@
       <c r="G32" s="178"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="221" t="s">
         <v>797</v>
       </c>
-      <c r="B33" s="214"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="215"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="220"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="173">
@@ -18730,15 +18730,15 @@
       <c r="G42" s="188"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="222" t="s">
         <v>814</v>
       </c>
-      <c r="B43" s="214"/>
-      <c r="C43" s="214"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="215"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="220"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="173">
@@ -18786,15 +18786,15 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="217" t="s">
+      <c r="A67" s="218" t="s">
         <v>815</v>
       </c>
-      <c r="B67" s="214"/>
-      <c r="C67" s="214"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="214"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="215"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="219"/>
+      <c r="D67" s="219"/>
+      <c r="E67" s="219"/>
+      <c r="F67" s="219"/>
+      <c r="G67" s="220"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="171" t="s">
@@ -18979,41 +18979,41 @@
   <sheetData>
     <row r="1" spans="1:35" ht="12.75">
       <c r="A1" s="166"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="218"/>
-      <c r="Z1" s="212" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="224"/>
+      <c r="Z1" s="217" t="s">
         <v>842</v>
       </c>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="212" t="s">
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="217" t="s">
         <v>843</v>
       </c>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="212" t="s">
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="217" t="s">
         <v>844</v>
       </c>
-      <c r="AE1" s="212"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="212" t="s">
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="217" t="s">
         <v>845</v>
       </c>
-      <c r="AH1" s="218"/>
+      <c r="AH1" s="224"/>
       <c r="AI1" t="s">
         <v>846</v>
       </c>
@@ -19395,7 +19395,7 @@
       <c r="AD8" s="196" t="s">
         <v>831</v>
       </c>
-      <c r="AE8" s="219" t="s">
+      <c r="AE8" s="223" t="s">
         <v>832</v>
       </c>
       <c r="AF8" s="202" t="s">
@@ -19446,7 +19446,7 @@
       <c r="AD9" t="s">
         <v>834</v>
       </c>
-      <c r="AE9" s="218"/>
+      <c r="AE9" s="224"/>
       <c r="AF9" t="s">
         <v>835</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="AD10" t="s">
         <v>836</v>
       </c>
-      <c r="AE10" s="218"/>
+      <c r="AE10" s="224"/>
       <c r="AF10" t="s">
         <v>837</v>
       </c>
@@ -19541,7 +19541,7 @@
       <c r="AC11" t="s">
         <v>901</v>
       </c>
-      <c r="AE11" s="220"/>
+      <c r="AE11" s="225"/>
     </row>
     <row r="12" spans="1:35" ht="12.75">
       <c r="A12" s="205"/>
@@ -19576,7 +19576,7 @@
       <c r="AD12" t="s">
         <v>838</v>
       </c>
-      <c r="AE12" s="218"/>
+      <c r="AE12" s="224"/>
       <c r="AF12" t="s">
         <v>839</v>
       </c>
@@ -19595,10 +19595,10 @@
       <c r="B13" s="199" t="s">
         <v>907</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="226" t="s">
         <v>908</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="198"/>
       <c r="F13" s="198"/>
       <c r="G13" s="198" t="s">
@@ -19630,7 +19630,7 @@
       <c r="AD13" t="s">
         <v>840</v>
       </c>
-      <c r="AE13" s="218"/>
+      <c r="AE13" s="224"/>
       <c r="AF13" t="s">
         <v>841</v>
       </c>
@@ -19649,8 +19649,8 @@
       <c r="B14" s="204" t="s">
         <v>916</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
       <c r="E14" s="198"/>
       <c r="F14" s="198"/>
       <c r="G14" s="198" t="s">
@@ -19939,6 +19939,9 @@
     <row r="37" spans="2:2" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="AE8:AE13"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="H1:M1"/>
@@ -19946,9 +19949,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
